--- a/src/test/resources/reader/FormaReaderTest.xlsx
+++ b/src/test/resources/reader/FormaReaderTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakihitoshi/git/forma4j/forma4j/src/test/resources/reader2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakihitoshi/git/forma4j/forma4j/src/test/resources/reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5027245-2B33-8F41-AD6E-41A676B04F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C47056-00B3-604E-8879-CFAB16DCF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="18940" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>サンプル帳票</t>
     <phoneticPr fontId="1"/>
@@ -175,49 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>よし子</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">コ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いつこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やすみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>久太</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キュウタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>六実</t>
-    <rPh sb="0" eb="2">
-      <t>ムツミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>七海</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ナナミ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠子</t>
-    <rPh sb="0" eb="2">
-      <t>トオコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -238,23 +195,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0010</t>
+    <t>四郎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シロウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五郎</t>
+    <rPh sb="0" eb="2">
+      <t>ゴロウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -713,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADBA580-7EBD-B345-A90D-0E27FAAFE48A}">
-  <dimension ref="B2:N15"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,7 +729,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -811,7 +762,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -834,7 +785,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -845,13 +796,13 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7">
         <v>11</v>
@@ -862,13 +813,13 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>13</v>
@@ -876,93 +827,29 @@
       <c r="F10" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="G10" s="7">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19</v>
-      </c>
-      <c r="J14" s="7">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7">
-        <v>21</v>
-      </c>
-      <c r="L14" s="7">
-        <v>22</v>
-      </c>
-      <c r="M14" s="7">
-        <v>23</v>
-      </c>
-      <c r="N14" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="7">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/reader/FormaReaderTest.xlsx
+++ b/src/test/resources/reader/FormaReaderTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakihitoshi/git/forma4j/forma4j/src/test/resources/reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C47056-00B3-604E-8879-CFAB16DCF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C467045A-73EF-BB4F-96B7-CB2E59D8C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="18940" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
   </bookViews>
@@ -322,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +342,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -737,28 +734,28 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1.05</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="1">
         <v>6</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="5" t="s">
@@ -770,16 +767,16 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
     </row>
@@ -804,11 +801,14 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>11</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="1">
         <v>12</v>
+      </c>
+      <c r="N9">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -821,34 +821,34 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="1">
         <v>14</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="1">
         <v>15</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="1">
         <v>16</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="1">
         <v>17</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="1">
         <v>18</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="1">
         <v>19</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="1">
         <v>20</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="1">
         <v>21</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="1">
         <v>22</v>
       </c>
     </row>
